--- a/biology/Zoologie/Boophis_ankarafensis/Boophis_ankarafensis.xlsx
+++ b/biology/Zoologie/Boophis_ankarafensis/Boophis_ankarafensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis ankarafensis est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis ankarafensis est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de Madagascar. Elle se rencontre dans la forêt d'Ankarafa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Ouest de Madagascar. Elle se rencontre dans la forêt d'Ankarafa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 3 spécimens adultes mâles observés lors de la description originale mesurent entre 22,9 mm et 24,0 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 28,5 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 3 spécimens adultes mâles observés lors de la description originale mesurent entre 22,9 mm et 24,0 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 28,5 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de ankaraf et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la forêt d'Ankarafa[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de ankaraf et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la forêt d'Ankarafa.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Penny, Andreone, Crottini, Holderied, Rakotozafy, Schwitzer &amp; Rosa, 2014 : A new species of the Boophis rappiodes group (Anura, Mantellidae) from the Sahamalaza Peninsula, northwest Madagascar, with acoustic monitoring of its nocturnal calling activity. ZooKeys, no 435, p. 111–132 (texte intégral).</t>
         </is>
